--- a/alcohol.xlsx
+++ b/alcohol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cocktails" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -54,58 +54,22 @@
     <t xml:space="preserve">desc</t>
   </si>
   <si>
-    <t xml:space="preserve">BLAHAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pitcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bols_blue_curacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shot</t>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alcPer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baileys</t>
   </si>
   <si>
     <t xml:space="preserve">sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aanvullen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 hajsnoepjes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lekker om mee te stapelen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kuyper_blueberry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">malibu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLAHAJ Stronk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLAHAJ maar dan sterker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alcPer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baileys</t>
   </si>
 </sst>
 </file>
@@ -116,7 +80,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_ &quot;€ &quot;* #,##0.00_ ;_ &quot;€ &quot;* \-#,##0.00_ ;_ &quot;€ &quot;* \-??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,6 +102,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -184,8 +154,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -244,10 +218,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -290,153 +264,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B1007" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B1:B1001" type="list">
       <formula1>"longdrink,tumbler,shot,papa,pul,pitcher"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1007 G1:G1007" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1001 G1:G1001" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E1007" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E1:E1001" type="list">
       <formula1>"shot,fles,scheutje,aanvullen"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1007" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C1:C1001" type="list">
       <formula1>alcohol!$A$2:$A$640</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F1007" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F1001" type="list">
       <formula1>nonAlcohol!$A$2:$A$640</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H1:H1007" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H1:H1001" type="list">
       <formula1>"shot,fles,scheutje,aanvullen"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J1:J1007" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J1:J1001" type="decimal">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -456,235 +313,706 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="A2" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B2, " ", "_"))</f>
+        <v>baileys</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="A3" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B3, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="A4" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B4, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="A5" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B5, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="2"/>
+      <c r="A6" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B6, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="2"/>
+      <c r="A7" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B7, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="2"/>
+      <c r="A8" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B8, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="2"/>
+      <c r="A9" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B9, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="2"/>
+      <c r="A10" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B10, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="2"/>
+      <c r="A11" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B11, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="2"/>
+      <c r="A12" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B12, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="2"/>
+      <c r="A13" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B13, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="2"/>
+      <c r="A14" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B14, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="2"/>
+      <c r="A15" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B15, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="2"/>
+      <c r="A16" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B16, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="2"/>
+      <c r="A17" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B17, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="2"/>
+      <c r="A18" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B18, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="2"/>
+      <c r="A19" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B19, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="2"/>
+      <c r="A20" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B20, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="2"/>
+      <c r="A21" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B21, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="2"/>
+      <c r="A22" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B22, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="2"/>
+      <c r="A23" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B23, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="2"/>
+      <c r="A24" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B24, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="2"/>
+      <c r="A25" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B25, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="2"/>
+      <c r="A26" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B26, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="2"/>
+      <c r="A27" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B27, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="2"/>
+      <c r="A28" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B28, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="2"/>
+      <c r="A29" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B29, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="2"/>
+      <c r="A30" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B30, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="2"/>
+      <c r="A31" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B31, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D32" s="2"/>
+      <c r="A32" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B32, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="2"/>
+      <c r="A33" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B33, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="2"/>
+      <c r="A34" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B34, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="2"/>
+      <c r="A35" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B35, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="2"/>
+      <c r="A36" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B36, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="2"/>
+      <c r="A37" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B37, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="2"/>
+      <c r="A38" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B38, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="2"/>
+      <c r="A39" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B39, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="2"/>
+      <c r="A40" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B40, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="2"/>
+      <c r="A41" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B41, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="2"/>
+      <c r="A42" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B42, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="2"/>
+      <c r="A43" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B43, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="A44" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B44, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="H44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="A45" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B45, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="A46" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B46, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="A47" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B47, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="2"/>
+      <c r="A48" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B48, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="2"/>
+      <c r="A49" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B49, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="2"/>
+      <c r="A50" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B50, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="2"/>
+      <c r="A51" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B51, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="2"/>
+      <c r="A52" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B52, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="2"/>
+      <c r="A53" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B53, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="2"/>
+      <c r="A54" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B54, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="2"/>
+      <c r="A55" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B55, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D55" s="3"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="2"/>
+      <c r="A56" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B56, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="2"/>
+      <c r="A57" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B57, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="2"/>
+      <c r="A58" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B58, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D59" s="2"/>
+      <c r="A59" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B59, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="2"/>
+      <c r="A60" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B60, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="2"/>
+      <c r="A61" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B61, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="2"/>
+      <c r="A62" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B62, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="2"/>
+      <c r="A63" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B63, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="2"/>
+      <c r="A64" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B64, " ", "_"))</f>
+        <v/>
+      </c>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B65, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B66, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B67, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B68, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B69, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B70, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B71, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B72, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B73, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B74, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B75, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B76, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B77, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B78, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B79, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B80, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B81, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B82, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B83, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B84, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B85, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B86, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B87, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B88, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B89, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B90, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B91, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B92, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B93, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B94, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B95, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B96, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B97, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B98, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B99, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B100, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B101, " ", "_"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="str">
+        <f aca="false">LOWER(SUBSTITUTE(B102, " ", "_"))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -715,21 +1043,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
